--- a/Insertion Geometry.xlsx
+++ b/Insertion Geometry.xlsx
@@ -4,10 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Trade_name" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="trade code" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Copy of Trade_name" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="rel_tr_code" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="rel_tr_" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="sub_nodes" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="rel_tn_sub_nodes" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Node Name</t>
   </si>
@@ -23,62 +21,19 @@
     <t>id</t>
   </si>
   <si>
+    <t>cypher query</t>
+  </si>
+  <si>
+    <t>Trade_name</t>
+  </si>
+  <si>
+    <t>CREATE(n:Trade_name{id: 1 });</t>
+  </si>
+  <si>
     <t>property 1</t>
   </si>
   <si>
     <t>property 2</t>
-  </si>
-  <si>
-    <t>cypher query</t>
-  </si>
-  <si>
-    <t>Trade_name</t>
-  </si>
-  <si>
-    <t>Shape</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>CREATE(n:Trade_name{id: 1,property1: 'Shape' ,property2: 'Description' });</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNMG
-</t>
-  </si>
-  <si>
-    <t>CREATE(n2:SNMG{id:2});</t>
-  </si>
-  <si>
-    <t>TNMG</t>
-  </si>
-  <si>
-    <t>CREATE(n2:TNMG{id:3});</t>
-  </si>
-  <si>
-    <t>CNMG</t>
-  </si>
-  <si>
-    <t>CREATE(n2:CNMG{id:4});</t>
-  </si>
-  <si>
-    <t>DNMG</t>
-  </si>
-  <si>
-    <t>CREATE(n2:DNMG{id:5});</t>
-  </si>
-  <si>
-    <t>VNMG</t>
-  </si>
-  <si>
-    <t>CREATE(n2:VNMG{id:6});</t>
-  </si>
-  <si>
-    <t>WNMG</t>
-  </si>
-  <si>
-    <t>CREATE(n2:WNMG{id:7});</t>
   </si>
   <si>
     <t>SNMG</t>
@@ -97,14 +52,11 @@
 machiningaright angle.</t>
   </si>
   <si>
-    <t>CREATE(n20:SNMG{id: 20,property1: 'Square insert' ,property2: 'The square insert has4cutting edges per side.If
-the insert is negative then it is possible to useatotal
-of8corners.Thus making this style of insert very
-economical.The insert hasacutting edge angle of
-90°so it has high cutting edge strength.However,
-the square insert needsaside cutting edge angle to
-machine and and such can not be used for
-machiningaright angle.' });</t>
+    <t>CREATE(n20:SNMG{id: 20,property1: 'Square insert' ,property2: 'The square insert has4cutting edges per side.If the insert is negative then it is possible to useatotal of 8corners.Thus making this style of insert very
+economical.The insert hasacutting edge angle of 90°so it has high cutting edge strength.However, the square insert needsaside cutting edge angle to machine and and such can not be used for machiningaright angle.' });</t>
+  </si>
+  <si>
+    <t>TNMG</t>
   </si>
   <si>
     <t>Triangular</t>
@@ -118,12 +70,24 @@
 edge strength when compared toasquare insert.</t>
   </si>
   <si>
-    <t>CREATE(n31:TNMG{id: 31,property1: 'Triangular' ,property2: 'The triangular insert has3cutting edges per side.It
-has less corners than the square type,but is
-effective in machining right angles and for copy
-machining(copying).This insert hasacutting edge
-point angle of 60°and therefore it has less cutting
-edge strength when compared toasquare insert..' });</t>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">CREATE(n31:TNMG{id: 31,property1: 'Triangular' ,property2: 'The triangular insert has3cutting edges per </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>side. It</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> has less corners than the square type,but is effective in machining right angles and for copy machining(copying).This insert hasacutting edge point angle of 60°and therefore it has less cutting edge strength when compared toasquare insert..' });</t>
+    </r>
+  </si>
+  <si>
+    <t>CNMG</t>
   </si>
   <si>
     <t xml:space="preserve">80°Rhombic
@@ -136,6 +100,9 @@
   </si>
   <si>
     <t>CREATE(n41:CNMG{id: 41,property1: '80°Rhombic' ,property2: 'This insert can be used for external machining and facing,and such is often used on CNC lathes.It is the most commonly used insert.' });</t>
+  </si>
+  <si>
+    <t>DNMG</t>
   </si>
   <si>
     <t xml:space="preserve">55°Rhombic
@@ -150,24 +117,21 @@
 the geometry of the workpiece being machined.</t>
   </si>
   <si>
-    <t>CREATE(n51:DNMG{id: 51,property1: '55°Rhombic' ,property2: 'These types of inserts are often used for copy
-machining.The insert itself has less cutting edge
-strength when compared with other inserts
-geometries.However,it is essential for copy
-machining.The use of either 55°or 35°depends on
-the geometry of the workpiece being machined.' });</t>
+    <t>CREATE(n51:DNMG{id: 51,property1: '55°Rhombic' ,property2: 'These types of inserts are often used for copy machining.The insert itself has less cutting edge strength when compared with other inserts geometries.However,it is essential for copy machining.The use of either 55°or 35°depends on the geometry of the workpiece being machined.' });</t>
+  </si>
+  <si>
+    <t>VNMG</t>
   </si>
   <si>
     <t xml:space="preserve">35°Rhombic
 </t>
   </si>
   <si>
-    <t>CREATE(n61:DNMG{id: 61,property1: '35°Rhombic' ,property2: 'These types of inserts are often used for copy
-machining.The insert itself has less cutting edge
-strength when compared with other inserts
-geometries.However,it is essential for copy
-machining.The use of either 55°or 35°depends on
-the geometry of the workpiece being machined.' });</t>
+    <t>CREATE(n61:VNMG{id: 61,property1: '35°Rhombic' ,property2: 'These types of inserts are often used for copy machining.The insert itself has less cutting edge strength when compared with other inserts
+geometries. However,it is essential for copy machining.The use of either 55°or 35°depends on the geometry of the workpiece being machined.' });</t>
+  </si>
+  <si>
+    <t>WNMG</t>
   </si>
   <si>
     <t>Trigon</t>
@@ -182,11 +146,8 @@
   </si>
   <si>
     <t>CREATE(n71:WNMG{id: 71,property1: 'Trigon' ,property2: 'This particular insert has3cutting edges per side.If
-the insert is negative thenatotal of6corners can
-be used.
-The cutting edge angle is 80°and therefore offers
-high cutting edge strength.However due to the
-short cutting edge length the depth of cut is limited.' });</t>
+the insert is negative thenatotal of6corners can be used. The cutting edge angle is 80°and therefore offers
+high cutting edge strength.However due to the short cutting edge length the depth of cut is limited.' });</t>
   </si>
   <si>
     <t>Round</t>
@@ -208,18 +169,10 @@
   </si>
   <si>
     <t>CREATE(n72:WNMG{id: 72,property1: 'Round' ,property2: 'The round insert offers the strongest cutting edge.
-Additionally,due to the large radius it provides the best
-surface finish.However there areafew disadvantages.
-For example,due to the long cutting edge the chips
-developed are relatively wide and such difficult to break.
-Also due to the large contact area and the long cutting
-edge length,the load on the insert increases.This can
-result in vibrations when machining small or thin walled
-objects.
-Round inserts are best suited for machining that requires
-high cutting edge strength,such as interrupted cuts,
-removing scale,and when machining cast iron as the
-chips do not elongate.' });</t>
+Additionally,due to the large radius it provides the best surface finish.However there areafew disadvantages.
+For example,due to the long cutting edge the chips developed are relatively wide and such difficult to break.
+Also due to the large contact area and the long cutting edge length,the load on the insert increases.This can
+result in vibrations when machining small or thin walled objects. Round inserts are best suited for machining that requires high cutting edge strength,such as interrupted cuts, removing scale,and when machining cast iron as the chips do not elongate.' });</t>
   </si>
   <si>
     <t>From</t>
@@ -237,22 +190,25 @@
     <t>type</t>
   </si>
   <si>
-    <t>MATCH(a{id:1}),(b{id:2}) MERGE(a)-[:type]-&gt;(b);</t>
-  </si>
-  <si>
-    <t>MATCH(a{id:1}),(b{id:3}) MERGE(a)-[:type]-&gt;(b);</t>
-  </si>
-  <si>
-    <t>MATCH(a{id:1}),(b{id:4}) MERGE(a)-[:type]-&gt;(b);</t>
-  </si>
-  <si>
-    <t>MATCH(a{id:1}),(b{id:5}) MERGE(a)-[:type]-&gt;(b);</t>
-  </si>
-  <si>
-    <t>MATCH(a{id:1}),(b{id:6}) MERGE(a)-[:type]-&gt;(b);</t>
-  </si>
-  <si>
-    <t>MATCH(a{id:1}),(b{id:7}) MERGE(a)-[:type]-&gt;(b);</t>
+    <t>MATCH(a{id:1}),(b{id:20}) MERGE(a)-[:type]-&gt;(b);</t>
+  </si>
+  <si>
+    <t>MATCH(a{id:1}),(b{id:31}) MERGE(a)-[:type]-&gt;(b);</t>
+  </si>
+  <si>
+    <t>MATCH(a{id:1}),(b{id:41}) MERGE(a)-[:type]-&gt;(b);</t>
+  </si>
+  <si>
+    <t>MATCH(a{id:1}),(b{id:51}) MERGE(a)-[:type]-&gt;(b);</t>
+  </si>
+  <si>
+    <t>MATCH(a{id:1}),(b{id:61}) MERGE(a)-[:type]-&gt;(b);</t>
+  </si>
+  <si>
+    <t>MATCH(a{id:1}),(b{id:71}) MERGE(a)-[:type]-&gt;(b);</t>
+  </si>
+  <si>
+    <t>MATCH(a{id:1}),(b{id:72}) MERGE(a)-[:type]-&gt;(b);</t>
   </si>
 </sst>
 </file>
@@ -278,9 +234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -307,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -317,11 +272,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -343,14 +295,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -569,31 +513,21 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -602,104 +536,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFCE5CD"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="3" max="3" width="70.5"/>
-    <col customWidth="1" min="5" max="5" width="70.63"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFCE5CD"/>
@@ -722,30 +558,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>20.0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -756,106 +592,109 @@
         <v>31.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2">
         <v>41.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>51.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
         <v>61.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
         <v>71.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2">
         <v>72.0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -864,19 +703,22 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="37.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -884,13 +726,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -898,13 +740,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="2">
-        <v>3.0</v>
+        <v>31.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -912,13 +754,13 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="2">
-        <v>4.0</v>
+        <v>41.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -926,13 +768,13 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="2">
-        <v>5.0</v>
+        <v>51.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -940,13 +782,13 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="2">
-        <v>6.0</v>
+        <v>61.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -954,30 +796,30 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="2">
-        <v>7.0</v>
+        <v>71.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>72.0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>